--- a/www/metadata.xlsx
+++ b/www/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\carol\Documents\Ecofeminita-general\shinyapp\www\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E127DDB-FEEA-43F4-99BB-FB69BE5C1B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E70108-101A-4B2A-BF58-11898D4E5710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
   <si>
     <t>indicador</t>
   </si>
@@ -148,6 +148,24 @@
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <t>B-Ingreso Total Individual</t>
+  </si>
+  <si>
+    <t>B-Ingreso mensual de la Ocupación Principal</t>
+  </si>
+  <si>
+    <t>B-Ingreso horario de la Ocupación Principal</t>
+  </si>
+  <si>
+    <t>B-Ingreso de la Ocupación Principal - Asalariadas/os sin desc. Jubil</t>
+  </si>
+  <si>
+    <t>Desagregación edad</t>
+  </si>
+  <si>
+    <t>Explicar por qué desagregamos por grupos de edad</t>
   </si>
 </sst>
 </file>
@@ -562,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -698,41 +716,41 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="10" t="s">
+      <c r="B15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="10" t="s">
+      <c r="B16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>32</v>
@@ -742,19 +760,19 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>23</v>
+      <c r="C18" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>32</v>
@@ -765,7 +783,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>32</v>
@@ -776,7 +794,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>32</v>
@@ -786,19 +804,19 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="14" t="s">
-        <v>27</v>
+      <c r="A22" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="13" t="s">
-        <v>29</v>
+      <c r="C22" s="12" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>32</v>
@@ -808,13 +826,24 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="16" t="s">
+      <c r="B25" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="16" t="s">
         <v>31</v>
       </c>
     </row>

--- a/www/metadata.xlsx
+++ b/www/metadata.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\carol\Documents\Ecofeminita-general\shinyapp\www\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E70108-101A-4B2A-BF58-11898D4E5710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F416A7D-0DF8-48B2-91F8-0A5C08439152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="44">
   <si>
     <t>indicador</t>
   </si>
@@ -98,15 +97,6 @@
   </si>
   <si>
     <t>Brecha de ingreso de…(explicar cómo se define y cómo se lee una brecha de ingreso, por qué nos interesa, etc.)</t>
-  </si>
-  <si>
-    <t>Ingreso mensual de la Ocupación Principal</t>
-  </si>
-  <si>
-    <t>Ingreso horario de la Ocupación Principal</t>
-  </si>
-  <si>
-    <t>Ingreso de la Ocupación Principal - Asalariadas/os sin desc. Jubil</t>
   </si>
   <si>
     <t>Nivel educativo</t>
@@ -167,6 +157,30 @@
   <si>
     <t>Explicar por qué desagregamos por grupos de edad</t>
   </si>
+  <si>
+    <t>Ocupadas servicio doméstico</t>
+  </si>
+  <si>
+    <t>Este indicador es el porcentaje de las ocupadas que se desempeñan como trabajadoras de servicio doméstico</t>
+  </si>
+  <si>
+    <t>No tiene descuento jubilatorio</t>
+  </si>
+  <si>
+    <t>No tiene días pagos por enfermedad</t>
+  </si>
+  <si>
+    <t>No tiene vacaciones pagas</t>
+  </si>
+  <si>
+    <t>No tiene obra social</t>
+  </si>
+  <si>
+    <t>No tiene aguinaldo</t>
+  </si>
+  <si>
+    <t>Estos indicadores refieren a proporción de trabajadoras del servicio doméstico con algún derecho vulnerado</t>
+  </si>
 </sst>
 </file>
 
@@ -189,7 +203,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,6 +255,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3399"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -295,6 +315,8 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -303,6 +325,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF3399"/>
       <color rgb="FF9966FF"/>
     </mruColors>
   </colors>
@@ -580,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -609,7 +632,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>15</v>
@@ -620,7 +643,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>15</v>
@@ -631,7 +654,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>15</v>
@@ -642,7 +665,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>15</v>
@@ -653,7 +676,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>15</v>
@@ -664,7 +687,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -672,7 +695,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -680,7 +703,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -688,7 +711,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -696,7 +719,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -704,7 +727,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -712,18 +735,18 @@
         <v>14</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -731,7 +754,7 @@
         <v>19</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>16</v>
@@ -742,7 +765,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>18</v>
@@ -753,7 +776,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>22</v>
@@ -764,7 +787,7 @@
         <v>21</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>22</v>
@@ -772,10 +795,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>23</v>
@@ -783,10 +806,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>23</v>
@@ -794,10 +817,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>23</v>
@@ -805,10 +828,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>23</v>
@@ -816,74 +839,105 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21BC0E63-5CF9-403C-84F4-46E5770E6CC3}">
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/www/metadata.xlsx
+++ b/www/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\carol\Documents\Ecofeminita-general\shinyapp\www\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F416A7D-0DF8-48B2-91F8-0A5C08439152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A4A7D5-F436-48BF-B508-999880A1C2B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="75">
   <si>
     <t>indicador</t>
   </si>
@@ -114,32 +114,6 @@
     <t>Remarcar importancia de esta variable como indicador de la distribución desigual de trabajo no remunerado</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">completar aquí (NO tocar columna </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>indicador</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
     <t>B-Ingreso Total Individual</t>
   </si>
   <si>
@@ -180,6 +154,102 @@
   </si>
   <si>
     <t>Estos indicadores refieren a proporción de trabajadoras del servicio doméstico con algún derecho vulnerado</t>
+  </si>
+  <si>
+    <t>Toma la proporción que representan los ocupados y desocupados dentro de toda la población total femenina/masculina. Suma a quienes tienen una ocupación y a quienes buscan una pero no la consiguen para clasificarlos como "activxs", una categoría que no contempla actividades como cocinar, limpiar, cuidar hijes o hacer la tarea con ellos y que en su mayor parte son llevadas adelante por mujeres</t>
+  </si>
+  <si>
+    <t>De la población económicamente activa, consideramos a las personas que ya tienen un empleo pero buscan activamente otro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es el cociente entre la población que trabaja menos de 35 horas semanales y la población que está activa económicamente. Están personas tienen disposición a trabajar más horas. Estos empleos suelen ser más flexibles para manejar otras responsabilidades, como las de cuidado. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proporción de personas de la población económicamente activa que no tienen empleo pero buscan uno activamente. Son personas que están disponibles para trabajar pero no consiguen empleo. </t>
+  </si>
+  <si>
+    <t>Proporción de personas de la población económicamente activa que tienen un empleo de menos de 35 horas semanales, están disponibles para trabajar más y se encuentran buscando empleo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los grupos de edad son divisiones que se hacen de la población para poder analizar si hay diferencias según la etapa de la vida en la que se encuentran. Se los separa en dos grupos de 14 a 29 años y de 30 a 64 años para poder ver las diferencias en participación debido a prejuicios relativos a la maternidad, carga de trabajo doméstico y de cuidados no remunerados, años de estudio, etc. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analizamos las diferencias por género de acuerdo al sector de la economía donde la persona ejerce su empleo, debido a la existencia de la segregación horizontal. Hay sectores masculinizados y otros feminizados, usualmente relacionados con lo que entendemos con que deben hacer las mujeres según los roles de género, como cuidar, limpiar o enseñar. Estas ramas suelen ser, además, las que tienen los empleos peores pagos de la economía. </t>
+  </si>
+  <si>
+    <t>La feminización de una rama se calcula a través de la cantidad de mujeres que trabajan en ella respecto de la cantidad de empleadxs total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El ingreso per capita familiar de una persona se calcula tomando el ingreso total del hogar donde habita y se divide por la cantidad de personas que viven en él. Para calcular la distribución por género por decil se ordena de forma ascendente a las personas según dicho ingreso y se las divide en diez grupos de igual tamaño. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El ingreso total individual es la suma de los ingresos que una persona posee directamente. Para calcular la distribución por género por decil se ordena de forma ascendente a las personas según dicho ingreso y se las divide en diez grupos de igual tamaño. </t>
+  </si>
+  <si>
+    <t>Lo que se conoce como "brecha salarial" calcula la diferencia entre los ingresos promedios percibidos por el empleo principal de los varones y las mujeres y la expresa en términos del promedio percibido más alto. Es decir, que puede leerse como “las mujeres perciben ingresos derivados de su ocupación principal que, en promedio, son un …% menores que los de los varones”. El fenómeno de que sea menor para las mujeres es algo que se repite en todo el mundo y se debe al tipo de inserción laboral que tienen las personas cuyo género condiciona la jerarquía del puesto donde trabajan, la rama de la ocupación, la cantidad de tiempo que destinan al mercado remunerado, cuánta responsabilidad tienen sobre las tareas domésticas, entre otras. Si bien existe la discriminación lisa y llana, la brecha salarial no quiere decir que sea la diferencia salarial por hora.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lo que se conoce como "brecha salarial" calcula la diferencia entre los ingresos promedios percibidos por el empleo principal de los varones y las mujeres y la expresa en términos del promedio percibido más alto. Es decir, que puede leerse como “las mujeres perciben ingresos derivados de su ocupación principal que, en promedio, son un …% menores que los de los varones”. No interesa ver cómo se amplía para el caso de las personas que trabajan en el mercado informal porque las mujeres tienden a insertarse en mayor medida en esa condición, como el caso de la rama del servicio doméstico. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">De la población económicamente activa se considera a las personas que trabajan menos de 35 horas semanales por causas vinculadas al mercado de trabajo, no están buscando activamente otro trabajo pero desearían trabajar más horas. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">De toda la población femenina/masculina se considera a quienes están en el mercado laboral vendiendo su fuerza de trabajo, es decir, se recorta de la tasa de actividad la proporción de quienes están ocupadas. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El ingreso total contempla ingresos laborales y no laborales (como rentas o subsidios). La "brecha de ingreso total individual" calcula la diferencia entre los ingresos individuales promedios de los varones y las mujeres, expresada en términos del ingreso más alto. Es decir, que puede leerse como “las mujeres perciben ingresos que, en promedio, son un …% menores que los de los varones”. En Argentina esta brecha es estructural, aunque sensible a los ciclos económicos. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La "brecha de ingreso horario de la ocupación principal" calcula la diferencia entre los ingresos por hora promedio percibidos por el empleo principal de los varones y las mujeres y la expresa en términos del promedio percibido más alto. Es decir, que puede leerse como “por cada hora que trabajan en su ocupación principal, las mujeres perciben un ingreso, en promedio, …% menos que los de los varones”. Nos interesa estudiar la desigualdad en los ingresos considerando las diferencias en la cantidad de tiempo destinado al mercado productivo porque usualmente son las mujeres las que en promedio trabajan menos horas remuneradas para destinar tiempo al trabajo no pago del hogar y cuidados. </t>
+  </si>
+  <si>
+    <t>El nivel educativo alcanzado es una forma de ver las credenciales de las personas empleadas, es decir, el proceso de educación formal que atravesaron. Nos permite observar si existe brecha en la remuneración entre personas con la misma formación.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El ingreso difiere de acuerdo a las competencias que requiere el puesto de trabajo. Analizamos si las mujeres reciben la misma compensación por nivel de calificación que sus pares varones ya que se ven perjudicadas por prejuicios, pisos pegajosos y escaleras rotas para acceder a la misma remuneracion y jerarquía. </t>
+  </si>
+  <si>
+    <t>Comparamos las horas que trabajan en promedio mujeres y varones en el mercado de trabajo remunerado para ver la influencia de las responsabilidades de cuidado, usualmente feminizadas.</t>
+  </si>
+  <si>
+    <t>Población Económicamente Activa</t>
+  </si>
+  <si>
+    <t>La población económicamente activa (PEA) está integrada por la población ocupada (que tiene un empleo) más la población desocupada (que busca activamente empleo).</t>
+  </si>
+  <si>
+    <t>&lt;/br&gt;La categoría de jefes/jefas incluye a quienes aquellos que no tienen relación de dependencia, son dueños de una empresa y contratan de manera permanente asalariados para desarrollar la actividad. Junto con dirección constituyen las categorías de jerarquía dentro de la estructura productiva, que nos permiten ver el acceso diferenciado de varones y mujeres a cargos jerárquicos.</t>
+  </si>
+  <si>
+    <t>&lt;/br&gt;La categoría de dirección se da cuando la persona ocupada está jerarquizada y tiene a su cargo a xx personas. Junto con dirección constituyen las categorías de jerarquía dentro de la estructura productiva y nos permite ver cómo las mujeres acceden a cargos jerarquicos en menor medida.</t>
+  </si>
+  <si>
+    <t>&lt;/br&gt;Un trabajador/a por cuenta propia es aquel que trabaja de forma independiente y directa. Otras personas lo emplean porque remuneran su trabajo, pero no tiene una relación regulada por la ley de contrato de trabajo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;/br&gt;Cuando la actividad laboral se realiza como contraprestación de un salario se dice que es trabajo asalariado.  Entran en esta categoría las personas que trabajan para un patrón, empresa o institución, las trabajadoras de casas particulares, entre otros. Está registrado/a cuando la relación está inscripta en ANSES, por lo que accede a derechos tales como: descuento jubilatorio, asignaciones familiares, vacaciones pagas, entre otros.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;/br&gt;Cuando la actividad laboral se realiza como contraprestación de un salario se dice que es trabajo asalariado. Entran en esta categoría las personas que trabajan para un patrón, empresa o institución, las trabajadoras de casas particulares, entre otros. No está registrado/a cuando la relación no está inscripta en ANSES, por lo que la persona asalariada no goza de descuento jubilatorio, ni asignaciones familiares, ni vacaciones pagas, entre otros.  </t>
+  </si>
+  <si>
+    <t>&lt;/br&gt;Este indicador es el porcentaje de las ocupadas que se desempeñan como trabajadoras de servicio doméstico.</t>
+  </si>
+  <si>
+    <t>&lt;/br&gt;Refiere a la proporción de trabajadoras del servicio doméstico que no tiene un empleo con el que aporte para su jubilación.</t>
+  </si>
+  <si>
+    <t>&lt;/br&gt;Refiere a la proporción de trabajadoras del servicio doméstico que no tiene un empleo que cuente con licencias por enfermedad.</t>
+  </si>
+  <si>
+    <t>&lt;/br&gt;Refiere a la proporción de trabajadoras del servicio doméstico que no tiene un empleo que cuente con licencias por vacaciones.</t>
+  </si>
+  <si>
+    <t>&lt;/br&gt;Refiere a la proporción de trabajadoras del servicio doméstico que no tiene un empleo que le descuente por obra social.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;/br&gt;Refiere a la proporción de trabajadoras del servicio doméstico que no tiene un empleo que cumpla el pago del aguinaldo. </t>
   </si>
 </sst>
 </file>
@@ -304,7 +374,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -317,6 +386,9 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -603,16 +675,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="53.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72.77734375" style="4" customWidth="1"/>
     <col min="3" max="3" width="110.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -627,313 +699,321 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>29</v>
+      <c r="B2" s="18" t="s">
+        <v>64</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>29</v>
+      <c r="B3" s="18" t="s">
+        <v>65</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>29</v>
+      <c r="B4" s="18" t="s">
+        <v>66</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>29</v>
+      <c r="B5" s="18" t="s">
+        <v>67</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>29</v>
+      <c r="B6" s="18" t="s">
+        <v>68</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B19" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="17" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="18" t="s">
+      <c r="B26" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="17" t="s">
+    </row>
+    <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="16" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="17" t="s">
+      <c r="B27" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="17" t="s">
+      <c r="B28" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="17" t="s">
+      <c r="B29" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="17" t="s">
+      <c r="B30" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="17" t="s">
+      <c r="B31" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>43</v>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/www/metadata.xlsx
+++ b/www/metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\carol\Documents\Ecofeminita-general\shinyapp\www\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A4A7D5-F436-48BF-B508-999880A1C2B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E44746E-D0A9-4FF8-9767-825D49068E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8976" yWindow="768" windowWidth="11724" windowHeight="12192" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="77">
   <si>
     <t>indicador</t>
   </si>
@@ -250,6 +250,12 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;/br&gt;Refiere a la proporción de trabajadoras del servicio doméstico que no tiene un empleo que cumpla el pago del aguinaldo. </t>
+  </si>
+  <si>
+    <t>Valuación</t>
+  </si>
+  <si>
+    <t>Mientras que las series en precios corrientes reflejan los montos al nivel de precios vigente en cada momento, las series expresadas en precios constantes reflejan todos los valores al nivel de precios de un mismo período.</t>
   </si>
 </sst>
 </file>
@@ -675,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1016,6 +1022,14 @@
         <v>63</v>
       </c>
     </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/www/metadata.xlsx
+++ b/www/metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\carol\Documents\Ecofeminita-general\shinyapp\www\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E44746E-D0A9-4FF8-9767-825D49068E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452DAB83-3C86-451F-94D9-3004FAB919A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8976" yWindow="768" windowWidth="11724" windowHeight="12192" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="79">
   <si>
     <t>indicador</t>
   </si>
@@ -256,6 +256,12 @@
   </si>
   <si>
     <t>Mientras que las series en precios corrientes reflejan los montos al nivel de precios vigente en cada momento, las series expresadas en precios constantes reflejan todos los valores al nivel de precios de un mismo período.</t>
+  </si>
+  <si>
+    <t>Tasa de No Registro</t>
+  </si>
+  <si>
+    <t>Distribución de las tareas del hogar</t>
   </si>
 </sst>
 </file>
@@ -681,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1030,6 +1036,16 @@
         <v>76</v>
       </c>
     </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/www/metadata.xlsx
+++ b/www/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\carol\Documents\Ecofeminita-general\shinyapp\www\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452DAB83-3C86-451F-94D9-3004FAB919A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C6EFB1-7800-4D4A-84AF-0927CB75E0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="81">
   <si>
     <t>indicador</t>
   </si>
@@ -156,102 +156,9 @@
     <t>Estos indicadores refieren a proporción de trabajadoras del servicio doméstico con algún derecho vulnerado</t>
   </si>
   <si>
-    <t>Toma la proporción que representan los ocupados y desocupados dentro de toda la población total femenina/masculina. Suma a quienes tienen una ocupación y a quienes buscan una pero no la consiguen para clasificarlos como "activxs", una categoría que no contempla actividades como cocinar, limpiar, cuidar hijes o hacer la tarea con ellos y que en su mayor parte son llevadas adelante por mujeres</t>
-  </si>
-  <si>
-    <t>De la población económicamente activa, consideramos a las personas que ya tienen un empleo pero buscan activamente otro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Es el cociente entre la población que trabaja menos de 35 horas semanales y la población que está activa económicamente. Están personas tienen disposición a trabajar más horas. Estos empleos suelen ser más flexibles para manejar otras responsabilidades, como las de cuidado. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proporción de personas de la población económicamente activa que no tienen empleo pero buscan uno activamente. Son personas que están disponibles para trabajar pero no consiguen empleo. </t>
-  </si>
-  <si>
-    <t>Proporción de personas de la población económicamente activa que tienen un empleo de menos de 35 horas semanales, están disponibles para trabajar más y se encuentran buscando empleo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los grupos de edad son divisiones que se hacen de la población para poder analizar si hay diferencias según la etapa de la vida en la que se encuentran. Se los separa en dos grupos de 14 a 29 años y de 30 a 64 años para poder ver las diferencias en participación debido a prejuicios relativos a la maternidad, carga de trabajo doméstico y de cuidados no remunerados, años de estudio, etc. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analizamos las diferencias por género de acuerdo al sector de la economía donde la persona ejerce su empleo, debido a la existencia de la segregación horizontal. Hay sectores masculinizados y otros feminizados, usualmente relacionados con lo que entendemos con que deben hacer las mujeres según los roles de género, como cuidar, limpiar o enseñar. Estas ramas suelen ser, además, las que tienen los empleos peores pagos de la economía. </t>
-  </si>
-  <si>
-    <t>La feminización de una rama se calcula a través de la cantidad de mujeres que trabajan en ella respecto de la cantidad de empleadxs total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El ingreso per capita familiar de una persona se calcula tomando el ingreso total del hogar donde habita y se divide por la cantidad de personas que viven en él. Para calcular la distribución por género por decil se ordena de forma ascendente a las personas según dicho ingreso y se las divide en diez grupos de igual tamaño. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">El ingreso total individual es la suma de los ingresos que una persona posee directamente. Para calcular la distribución por género por decil se ordena de forma ascendente a las personas según dicho ingreso y se las divide en diez grupos de igual tamaño. </t>
-  </si>
-  <si>
-    <t>Lo que se conoce como "brecha salarial" calcula la diferencia entre los ingresos promedios percibidos por el empleo principal de los varones y las mujeres y la expresa en términos del promedio percibido más alto. Es decir, que puede leerse como “las mujeres perciben ingresos derivados de su ocupación principal que, en promedio, son un …% menores que los de los varones”. El fenómeno de que sea menor para las mujeres es algo que se repite en todo el mundo y se debe al tipo de inserción laboral que tienen las personas cuyo género condiciona la jerarquía del puesto donde trabajan, la rama de la ocupación, la cantidad de tiempo que destinan al mercado remunerado, cuánta responsabilidad tienen sobre las tareas domésticas, entre otras. Si bien existe la discriminación lisa y llana, la brecha salarial no quiere decir que sea la diferencia salarial por hora.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lo que se conoce como "brecha salarial" calcula la diferencia entre los ingresos promedios percibidos por el empleo principal de los varones y las mujeres y la expresa en términos del promedio percibido más alto. Es decir, que puede leerse como “las mujeres perciben ingresos derivados de su ocupación principal que, en promedio, son un …% menores que los de los varones”. No interesa ver cómo se amplía para el caso de las personas que trabajan en el mercado informal porque las mujeres tienden a insertarse en mayor medida en esa condición, como el caso de la rama del servicio doméstico. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">De la población económicamente activa se considera a las personas que trabajan menos de 35 horas semanales por causas vinculadas al mercado de trabajo, no están buscando activamente otro trabajo pero desearían trabajar más horas. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">De toda la población femenina/masculina se considera a quienes están en el mercado laboral vendiendo su fuerza de trabajo, es decir, se recorta de la tasa de actividad la proporción de quienes están ocupadas. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">El ingreso total contempla ingresos laborales y no laborales (como rentas o subsidios). La "brecha de ingreso total individual" calcula la diferencia entre los ingresos individuales promedios de los varones y las mujeres, expresada en términos del ingreso más alto. Es decir, que puede leerse como “las mujeres perciben ingresos que, en promedio, son un …% menores que los de los varones”. En Argentina esta brecha es estructural, aunque sensible a los ciclos económicos. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">La "brecha de ingreso horario de la ocupación principal" calcula la diferencia entre los ingresos por hora promedio percibidos por el empleo principal de los varones y las mujeres y la expresa en términos del promedio percibido más alto. Es decir, que puede leerse como “por cada hora que trabajan en su ocupación principal, las mujeres perciben un ingreso, en promedio, …% menos que los de los varones”. Nos interesa estudiar la desigualdad en los ingresos considerando las diferencias en la cantidad de tiempo destinado al mercado productivo porque usualmente son las mujeres las que en promedio trabajan menos horas remuneradas para destinar tiempo al trabajo no pago del hogar y cuidados. </t>
-  </si>
-  <si>
-    <t>El nivel educativo alcanzado es una forma de ver las credenciales de las personas empleadas, es decir, el proceso de educación formal que atravesaron. Nos permite observar si existe brecha en la remuneración entre personas con la misma formación.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El ingreso difiere de acuerdo a las competencias que requiere el puesto de trabajo. Analizamos si las mujeres reciben la misma compensación por nivel de calificación que sus pares varones ya que se ven perjudicadas por prejuicios, pisos pegajosos y escaleras rotas para acceder a la misma remuneracion y jerarquía. </t>
-  </si>
-  <si>
-    <t>Comparamos las horas que trabajan en promedio mujeres y varones en el mercado de trabajo remunerado para ver la influencia de las responsabilidades de cuidado, usualmente feminizadas.</t>
-  </si>
-  <si>
     <t>Población Económicamente Activa</t>
   </si>
   <si>
-    <t>La población económicamente activa (PEA) está integrada por la población ocupada (que tiene un empleo) más la población desocupada (que busca activamente empleo).</t>
-  </si>
-  <si>
-    <t>&lt;/br&gt;La categoría de jefes/jefas incluye a quienes aquellos que no tienen relación de dependencia, son dueños de una empresa y contratan de manera permanente asalariados para desarrollar la actividad. Junto con dirección constituyen las categorías de jerarquía dentro de la estructura productiva, que nos permiten ver el acceso diferenciado de varones y mujeres a cargos jerárquicos.</t>
-  </si>
-  <si>
-    <t>&lt;/br&gt;La categoría de dirección se da cuando la persona ocupada está jerarquizada y tiene a su cargo a xx personas. Junto con dirección constituyen las categorías de jerarquía dentro de la estructura productiva y nos permite ver cómo las mujeres acceden a cargos jerarquicos en menor medida.</t>
-  </si>
-  <si>
-    <t>&lt;/br&gt;Un trabajador/a por cuenta propia es aquel que trabaja de forma independiente y directa. Otras personas lo emplean porque remuneran su trabajo, pero no tiene una relación regulada por la ley de contrato de trabajo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;/br&gt;Cuando la actividad laboral se realiza como contraprestación de un salario se dice que es trabajo asalariado.  Entran en esta categoría las personas que trabajan para un patrón, empresa o institución, las trabajadoras de casas particulares, entre otros. Está registrado/a cuando la relación está inscripta en ANSES, por lo que accede a derechos tales como: descuento jubilatorio, asignaciones familiares, vacaciones pagas, entre otros.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;/br&gt;Cuando la actividad laboral se realiza como contraprestación de un salario se dice que es trabajo asalariado. Entran en esta categoría las personas que trabajan para un patrón, empresa o institución, las trabajadoras de casas particulares, entre otros. No está registrado/a cuando la relación no está inscripta en ANSES, por lo que la persona asalariada no goza de descuento jubilatorio, ni asignaciones familiares, ni vacaciones pagas, entre otros.  </t>
-  </si>
-  <si>
-    <t>&lt;/br&gt;Este indicador es el porcentaje de las ocupadas que se desempeñan como trabajadoras de servicio doméstico.</t>
-  </si>
-  <si>
-    <t>&lt;/br&gt;Refiere a la proporción de trabajadoras del servicio doméstico que no tiene un empleo con el que aporte para su jubilación.</t>
-  </si>
-  <si>
-    <t>&lt;/br&gt;Refiere a la proporción de trabajadoras del servicio doméstico que no tiene un empleo que cuente con licencias por enfermedad.</t>
-  </si>
-  <si>
-    <t>&lt;/br&gt;Refiere a la proporción de trabajadoras del servicio doméstico que no tiene un empleo que cuente con licencias por vacaciones.</t>
-  </si>
-  <si>
-    <t>&lt;/br&gt;Refiere a la proporción de trabajadoras del servicio doméstico que no tiene un empleo que le descuente por obra social.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;/br&gt;Refiere a la proporción de trabajadoras del servicio doméstico que no tiene un empleo que cumpla el pago del aguinaldo. </t>
-  </si>
-  <si>
     <t>Valuación</t>
   </si>
   <si>
@@ -262,6 +169,105 @@
   </si>
   <si>
     <t>Distribución de las tareas del hogar</t>
+  </si>
+  <si>
+    <t>La categoría de jefes/jefas refiere a ocupaciones cuyo fin es la transmisión y la aplicación de las decisiones generales emanadas de la dirección, así como la organización, supervisión y control de procesos y personas comprometidas en su ejecución. Junto con la de Dirección constituyen las categorías de jerarquía dentro de la estructura organizativa de los establecimientos, que nos permiten ver el acceso de varones y mujeres a cargos jerárquicos.</t>
+  </si>
+  <si>
+    <t>La categoría de dirección refiere a ocupaciones que se encuentran en el punto más alto de la estructura de mandos, impartiendo las órdenes sin recibirlas de ninguna otra instancia. Tienen a su cargo la toma de decisiones globales de orden político, económico y productivo acerca de la direccionalidad, contenido y metas de los procesos productores de bienes y servicios. Junto con Jefatura constituyen las categorías de jerarquía dentro de la estructura productiva y nos permite ver cómo las mujeres acceden a cargos jerárquicos en menor medida.</t>
+  </si>
+  <si>
+    <t>Un trabajador/a por cuenta propia es aquel que desarrolla su actividad con su trabajo personal y su propia maquinaria y equipo, no tiene personas a cargo. Otras personas o entes remuneran su trabajo, pero no tiene una relación laboral regulada por la Ley de Contrato de Trabajo.</t>
+  </si>
+  <si>
+    <t>Los Trabajadores Asalariados No Registrados son quienes trabajan en relación de dependencia aportando su trabajo personal, ya que todos los insumos, herramientas y formas organizativas para realizarlo están dados. Entran en esta categoría las personas que trabajan para un patrón, empresa o institución, las trabajadoras de casas particulares y les cuentapropistas que tienen un único cliente. No está registrado/a cuando la relación no está inscripta en ANSES, por lo que la persona asalariada no percibe descuento jubilatorio, ni asignaciones familiares, ni vacaciones pagas, entre otros.</t>
+  </si>
+  <si>
+    <t>Los Trabajadores Asalariados Registrados son quienes trabajan en relación de dependencia aportando su trabajo personal, ya que todos los insumos, herramientas y formas organizativas para realizarlo están dados. Entran en esta categoría las personas que trabajan para un patrón, empresa o institución, las trabajadoras de casas particulares y les cuentapropistas que tienen un único cliente. Está registrado/a cuando la relación está inscrita en ANSES, por lo que tiene descuento jubilatorio, asignaciones familiares, vacaciones pagas, entre otros.</t>
+  </si>
+  <si>
+    <t>De la población económicamente activa, se considera a las personas que ya tienen un empleo pero buscan activamente otro.</t>
+  </si>
+  <si>
+    <t>De la población económicamente activa se considera a las personas que trabajan menos de 35 horas semanales, no están buscando activamente otro trabajo aunque desearían trabajar más horas pero por causas involuntarias no lo hacen. </t>
+  </si>
+  <si>
+    <t>De la población de mujeres y de varones se considera a quienes están en el mercado laboral como ocupades, es decir, se recorta de la tasa de actividad la proporción de quienes están desocupadas.</t>
+  </si>
+  <si>
+    <t>Proporción de personas de la población económicamente activa que tienen un empleo de menos de 35 horas semanales, están disponibles para trabajar más horas y se encuentran buscando empleo.</t>
+  </si>
+  <si>
+    <t>Proporción de personas de la población económicamente activa que tienen un empleo de menos de 35 horas semanales pero están disponibles para trabajar más horas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proporción de personas de la población económicamente activa que no tiene empleo pero busca uno activamente. Son personas que están disponibles para trabajar pero no consiguen empleo. </t>
+  </si>
+  <si>
+    <t>Los grupos de edad son divisiones que se hacen de la población para poder analizar si hay diferencias según la etapa de la vida en la que se encuentran. Se los separa en dos grupos de 14 a 29 años y de 30 a 64 años para poder ver las diferencias en participación debido a prejuicios relativos a la maternidad, carga de trabajo doméstico y de cuidados no remunerados, años de estudio, etc.</t>
+  </si>
+  <si>
+    <t>Analizamos las diferencias por género de acuerdo al sector de la economía donde la persona ejerce su empleo, debido a la existencia de segregación horizontal del mercado de trabajo. Este término hace referencia al predominio de mujeres en sectores o actividades asociadas a tareas estereotípicamente femeninas, tales como el cuidado, la limpieza, la crianza y enseñanza. Decimos que estas ramas están “feminizadas” y suelen ser, además, las que tienen las peores condiciones de trabajo y empleo. Ver ejemplo: Trabajadoras de casas particulares.</t>
+  </si>
+  <si>
+    <t>La feminización de una rama se calcula según la cantidad de mujeres que trabajan en ella respecto de la cantidad de empleados/as total.</t>
+  </si>
+  <si>
+    <t>El ingreso per cápita familiar de una persona se calcula tomando el ingreso total del hogar donde habita y dividiéndolo por la cantidad de personas que viven en él. Para calcular la distribución por género por decil, en primer lugar se ordena a las personas de forma ascendente según dicho ingreso y se las divide en diez grupos de igual tamaño. El decil 1 se compone, por lo tanto, del 10% de la población con menores ingresos, mientras que el decil 10 representa al 10% de la población con mayores ingresos. Luego, se calcula la proporción de varones y mujeres en cada decil.</t>
+  </si>
+  <si>
+    <t>Este ingreso se calcula tomando el ingreso total que percibe una persona a título individual, cualquiera sea la fuente de la que proviene (es decir, tanto laboral como no laboral). Para calcular la distribución por género por decil se ordena de forma ascendente a las personas según dicho ingreso y se las divide en diez grupos de igual tamaño, luego se calcula la proporción de varones y mujeres en cada grupo.</t>
+  </si>
+  <si>
+    <t>El ingreso total contempla tanto ingresos laborales como no laborales de una persona, como rentas o subsidios. La "brecha de ingreso total individual" calcula la diferencia entre los ingresos individuales promedios de los varones y las mujeres, expresada en términos del ingreso más alto. Es decir, que puede leerse como “las mujeres perciben ingresos que, en promedio, son un …% menores que los de los varones”. En Argentina esta brecha es estructural, aunque sensible a los ciclos económicos.</t>
+  </si>
+  <si>
+    <t>Esta brecha calcula la diferencia entre los ingresos promedios percibidos por el empleo principal de los varones y las mujeres, expresándola en términos del promedio percibido más alto. Es decir, que puede leerse como “las mujeres perciben ingresos derivados de su ocupación principal que, en promedio, son un …% menores que los de los varones”. La existencia de la brecha en detrimento de las mujeres es algo que se repite en todo el mundo y se debe al tipo de inserción laboral que tienen las personas, dado que el género condiciona la jerarquía del puesto donde trabajan, la rama de la ocupación, la cantidad de tiempo que destinan al mercado remunerado, cuánta responsabilidad tienen sobre las tareas domésticas, entre otras. Si bien existe la discriminación explícita, la existencia de una brecha salarial no necesariamente  implica que se esté remunerando peor a las mujeres por igual tarea y tiempo de trabajo que los varones.</t>
+  </si>
+  <si>
+    <t>La "brecha de ingreso horario de la ocupación principal" calcula la diferencia entre los ingresos por hora promedio percibidos por el empleo principal de los varones y las mujeres, expresada en términos del promedio percibido más alto. Es decir, que puede leerse como “por cada hora que trabajan en su ocupación principal, las mujeres perciben un ingreso, en promedio, …% menos que los de los varones”. Nos interesa estudiar la desigualdad en los ingresos en el pago por hora, teniendo en cuenta que  la cantidad de tiempo destinado al mercado productivo no es igual entre varones y mujeres, porque son ellas quienes trabajan menos horas remuneradas para destinar tiempo al trabajo no pago del hogar y cuidados.</t>
+  </si>
+  <si>
+    <t>Lo que se conoce como "brecha salarial" calcula la diferencia entre los salarios promedios percibidos por el empleo principal de los varones y las mujeres y la expresa en términos del promedio percibido más alto. Es decir, que puede leerse como “las mujeres perciben ingresos derivados de su ocupación principal que, en promedio, son un …% menores que los de los varones”. Nos interesa ver cómo se amplía esta diferencia para el caso de las personas que trabajan en el mercado informal porque las mujeres tienden a insertarse en mayor medida bajo esa condición, como el caso de la rama del servicio doméstico.</t>
+  </si>
+  <si>
+    <t>El nivel educativo alcanzado es una forma de ver las credenciales formales de las personas empleadas, es decir, el proceso de educación formal que atravesaron. Nos permite observar si existe brecha en la remuneración entre personas con un mismo nivel de formación.</t>
+  </si>
+  <si>
+    <t>El ingreso varía de acuerdo a las competencias que requiere el puesto de trabajo. Analizamos si las mujeres reciben la misma compensación por nivel de calificación que sus pares varones ya que se ven perjudicadas por prejuicios, pisos pegajosos y escaleras rotas para acceder a la misma remuneración y jerarquía.</t>
+  </si>
+  <si>
+    <t>Comparamos las horas que trabajan en promedio mujeres y varones en el mercado de trabajo para analizar la influencia de las horas dedicadas a las responsabilidades de cuidado (usualmente feminizadas).</t>
+  </si>
+  <si>
+    <t>Este indicador refiere al porcentaje de las ocupadas totales que se desempeñan como trabajadoras de casas particulares.</t>
+  </si>
+  <si>
+    <t>El porcentaje de trabajadoras de casas particulares que no tiene descuento jubilatorio refiere a la proporción de estas trabajadoras que no cuenta con un empleador que realice los aportes y contribuciones correspondientes a su jubilación.</t>
+  </si>
+  <si>
+    <t>El porcentaje de trabajadoras de casas particulares que no tiene días pagos por enfermedad refiere a la proporción de estas trabajadoras que, en caso de enfermar, no cuenta con una licencia por enfermedad paga.</t>
+  </si>
+  <si>
+    <t>El porcentaje de trabajadoras de casas particulares que no tiene vacaciones pagas refiere a la proporción de estas trabajadoras que no tiene derecho a gozar de vacaciones anuales pagas.</t>
+  </si>
+  <si>
+    <t>El porcentaje de trabajadoras de casas particulares que no tiene obra social refiere a la proporción de estas trabajadoras que no cuenta con un empleador que realice los aportes correspondientes a una obra social, por lo que su relación laboral no le asegura el acceso al subsistema de salud privado.</t>
+  </si>
+  <si>
+    <t>El porcentaje de trabajadoras de casas particulares que no tiene aguinaldo refiere a la proporción de estas trabajadoras que no tiene un empleo que cumpla el pago de un Sueldo Anual Complementario.</t>
+  </si>
+  <si>
+    <t>Las responsabilidades de limpieza, cocina y gestión del hogar toman tiempo y son un trabajo invisibilizado. Este indicador busca visibilizar el género de la principal persona encargada de resolverlas en cada hogar. Los hogares de un único miembro se incluyen en el cómputo. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refiere a la proporción de asalariadoas/as/es no registrados en relación a los asalariadoas/as/es totales. Es una forma de medir la incidencia de la informalidad en el mercado de trabajo, y observar si existen diferencias entre varones y mujeres en la probabilidad de insertarse de forma no-formal. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se calcula como la proporción que representa la Población Económicamente Activa entre la población total, ya sea de mujeres o de varones. </t>
+  </si>
+  <si>
+    <t>La Población Económicamente Activa (PEA) incluye a las personas que ofrecen su trabajo en el mercado, sea que lo consiguen (ocupadas/os) o no (desocupadas/os). Cabe destacar que esta definición de "Actividad Económica" no contempla actividades como cocinar, limpiar, cuidar, etc. que son realizadas principalmente por mujeres fuera del mercado. </t>
   </si>
 </sst>
 </file>
@@ -689,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -711,67 +717,67 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -779,7 +785,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -787,7 +793,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -795,15 +801,15 @@
         <v>11</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -811,239 +817,245 @@
         <v>13</v>
       </c>
       <c r="B12" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B13" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="B14" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B15" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
+    <row r="16" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="9" t="s">
+      <c r="B16" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
+    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="B17" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+    <row r="18" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="B18" s="18" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
+    <row r="19" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
-        <v>30</v>
-      </c>
       <c r="B20" s="18" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
-        <v>24</v>
+    <row r="23" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>26</v>
+        <v>67</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
+    <row r="25" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="15" t="s">
+      <c r="B26" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="17" t="s">
+    <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" s="16" t="s">
+      <c r="B27" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="16" t="s">
+    <row r="28" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="16" t="s">
-        <v>38</v>
-      </c>
       <c r="B28" s="18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C29" s="16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C30" s="16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C31" s="16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" t="s">
-        <v>63</v>
+    <row r="32" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>76</v>
+        <v>43</v>
+      </c>
+      <c r="B33" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>77</v>
+        <v>44</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>78</v>
+        <v>47</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/www/metadata.xlsx
+++ b/www/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\carol\Documents\Ecofeminita-general\shinyapp\www\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C6EFB1-7800-4D4A-84AF-0927CB75E0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02EE1604-2868-4D64-9851-C1A27B326957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -174,42 +174,12 @@
     <t>La categoría de jefes/jefas refiere a ocupaciones cuyo fin es la transmisión y la aplicación de las decisiones generales emanadas de la dirección, así como la organización, supervisión y control de procesos y personas comprometidas en su ejecución. Junto con la de Dirección constituyen las categorías de jerarquía dentro de la estructura organizativa de los establecimientos, que nos permiten ver el acceso de varones y mujeres a cargos jerárquicos.</t>
   </si>
   <si>
-    <t>La categoría de dirección refiere a ocupaciones que se encuentran en el punto más alto de la estructura de mandos, impartiendo las órdenes sin recibirlas de ninguna otra instancia. Tienen a su cargo la toma de decisiones globales de orden político, económico y productivo acerca de la direccionalidad, contenido y metas de los procesos productores de bienes y servicios. Junto con Jefatura constituyen las categorías de jerarquía dentro de la estructura productiva y nos permite ver cómo las mujeres acceden a cargos jerárquicos en menor medida.</t>
-  </si>
-  <si>
     <t>Un trabajador/a por cuenta propia es aquel que desarrolla su actividad con su trabajo personal y su propia maquinaria y equipo, no tiene personas a cargo. Otras personas o entes remuneran su trabajo, pero no tiene una relación laboral regulada por la Ley de Contrato de Trabajo.</t>
   </si>
   <si>
-    <t>Los Trabajadores Asalariados No Registrados son quienes trabajan en relación de dependencia aportando su trabajo personal, ya que todos los insumos, herramientas y formas organizativas para realizarlo están dados. Entran en esta categoría las personas que trabajan para un patrón, empresa o institución, las trabajadoras de casas particulares y les cuentapropistas que tienen un único cliente. No está registrado/a cuando la relación no está inscripta en ANSES, por lo que la persona asalariada no percibe descuento jubilatorio, ni asignaciones familiares, ni vacaciones pagas, entre otros.</t>
-  </si>
-  <si>
-    <t>Los Trabajadores Asalariados Registrados son quienes trabajan en relación de dependencia aportando su trabajo personal, ya que todos los insumos, herramientas y formas organizativas para realizarlo están dados. Entran en esta categoría las personas que trabajan para un patrón, empresa o institución, las trabajadoras de casas particulares y les cuentapropistas que tienen un único cliente. Está registrado/a cuando la relación está inscrita en ANSES, por lo que tiene descuento jubilatorio, asignaciones familiares, vacaciones pagas, entre otros.</t>
-  </si>
-  <si>
-    <t>De la población económicamente activa, se considera a las personas que ya tienen un empleo pero buscan activamente otro.</t>
-  </si>
-  <si>
-    <t>De la población económicamente activa se considera a las personas que trabajan menos de 35 horas semanales, no están buscando activamente otro trabajo aunque desearían trabajar más horas pero por causas involuntarias no lo hacen. </t>
-  </si>
-  <si>
-    <t>De la población de mujeres y de varones se considera a quienes están en el mercado laboral como ocupades, es decir, se recorta de la tasa de actividad la proporción de quienes están desocupadas.</t>
-  </si>
-  <si>
-    <t>Proporción de personas de la población económicamente activa que tienen un empleo de menos de 35 horas semanales, están disponibles para trabajar más horas y se encuentran buscando empleo.</t>
-  </si>
-  <si>
     <t>Proporción de personas de la población económicamente activa que tienen un empleo de menos de 35 horas semanales pero están disponibles para trabajar más horas.</t>
   </si>
   <si>
-    <t xml:space="preserve">Proporción de personas de la población económicamente activa que no tiene empleo pero busca uno activamente. Son personas que están disponibles para trabajar pero no consiguen empleo. </t>
-  </si>
-  <si>
-    <t>Los grupos de edad son divisiones que se hacen de la población para poder analizar si hay diferencias según la etapa de la vida en la que se encuentran. Se los separa en dos grupos de 14 a 29 años y de 30 a 64 años para poder ver las diferencias en participación debido a prejuicios relativos a la maternidad, carga de trabajo doméstico y de cuidados no remunerados, años de estudio, etc.</t>
-  </si>
-  <si>
-    <t>Analizamos las diferencias por género de acuerdo al sector de la economía donde la persona ejerce su empleo, debido a la existencia de segregación horizontal del mercado de trabajo. Este término hace referencia al predominio de mujeres en sectores o actividades asociadas a tareas estereotípicamente femeninas, tales como el cuidado, la limpieza, la crianza y enseñanza. Decimos que estas ramas están “feminizadas” y suelen ser, además, las que tienen las peores condiciones de trabajo y empleo. Ver ejemplo: Trabajadoras de casas particulares.</t>
-  </si>
-  <si>
     <t>La feminización de una rama se calcula según la cantidad de mujeres que trabajan en ella respecto de la cantidad de empleados/as total.</t>
   </si>
   <si>
@@ -219,18 +189,6 @@
     <t>Este ingreso se calcula tomando el ingreso total que percibe una persona a título individual, cualquiera sea la fuente de la que proviene (es decir, tanto laboral como no laboral). Para calcular la distribución por género por decil se ordena de forma ascendente a las personas según dicho ingreso y se las divide en diez grupos de igual tamaño, luego se calcula la proporción de varones y mujeres en cada grupo.</t>
   </si>
   <si>
-    <t>El ingreso total contempla tanto ingresos laborales como no laborales de una persona, como rentas o subsidios. La "brecha de ingreso total individual" calcula la diferencia entre los ingresos individuales promedios de los varones y las mujeres, expresada en términos del ingreso más alto. Es decir, que puede leerse como “las mujeres perciben ingresos que, en promedio, son un …% menores que los de los varones”. En Argentina esta brecha es estructural, aunque sensible a los ciclos económicos.</t>
-  </si>
-  <si>
-    <t>Esta brecha calcula la diferencia entre los ingresos promedios percibidos por el empleo principal de los varones y las mujeres, expresándola en términos del promedio percibido más alto. Es decir, que puede leerse como “las mujeres perciben ingresos derivados de su ocupación principal que, en promedio, son un …% menores que los de los varones”. La existencia de la brecha en detrimento de las mujeres es algo que se repite en todo el mundo y se debe al tipo de inserción laboral que tienen las personas, dado que el género condiciona la jerarquía del puesto donde trabajan, la rama de la ocupación, la cantidad de tiempo que destinan al mercado remunerado, cuánta responsabilidad tienen sobre las tareas domésticas, entre otras. Si bien existe la discriminación explícita, la existencia de una brecha salarial no necesariamente  implica que se esté remunerando peor a las mujeres por igual tarea y tiempo de trabajo que los varones.</t>
-  </si>
-  <si>
-    <t>La "brecha de ingreso horario de la ocupación principal" calcula la diferencia entre los ingresos por hora promedio percibidos por el empleo principal de los varones y las mujeres, expresada en términos del promedio percibido más alto. Es decir, que puede leerse como “por cada hora que trabajan en su ocupación principal, las mujeres perciben un ingreso, en promedio, …% menos que los de los varones”. Nos interesa estudiar la desigualdad en los ingresos en el pago por hora, teniendo en cuenta que  la cantidad de tiempo destinado al mercado productivo no es igual entre varones y mujeres, porque son ellas quienes trabajan menos horas remuneradas para destinar tiempo al trabajo no pago del hogar y cuidados.</t>
-  </si>
-  <si>
-    <t>Lo que se conoce como "brecha salarial" calcula la diferencia entre los salarios promedios percibidos por el empleo principal de los varones y las mujeres y la expresa en términos del promedio percibido más alto. Es decir, que puede leerse como “las mujeres perciben ingresos derivados de su ocupación principal que, en promedio, son un …% menores que los de los varones”. Nos interesa ver cómo se amplía esta diferencia para el caso de las personas que trabajan en el mercado informal porque las mujeres tienden a insertarse en mayor medida bajo esa condición, como el caso de la rama del servicio doméstico.</t>
-  </si>
-  <si>
     <t>El nivel educativo alcanzado es una forma de ver las credenciales formales de las personas empleadas, es decir, el proceso de educación formal que atravesaron. Nos permite observar si existe brecha en la remuneración entre personas con un mismo nivel de formación.</t>
   </si>
   <si>
@@ -258,16 +216,58 @@
     <t>El porcentaje de trabajadoras de casas particulares que no tiene aguinaldo refiere a la proporción de estas trabajadoras que no tiene un empleo que cumpla el pago de un Sueldo Anual Complementario.</t>
   </si>
   <si>
-    <t>Las responsabilidades de limpieza, cocina y gestión del hogar toman tiempo y son un trabajo invisibilizado. Este indicador busca visibilizar el género de la principal persona encargada de resolverlas en cada hogar. Los hogares de un único miembro se incluyen en el cómputo. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Refiere a la proporción de asalariadoas/as/es no registrados en relación a los asalariadoas/as/es totales. Es una forma de medir la incidencia de la informalidad en el mercado de trabajo, y observar si existen diferencias entre varones y mujeres en la probabilidad de insertarse de forma no-formal. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se calcula como la proporción que representa la Población Económicamente Activa entre la población total, ya sea de mujeres o de varones. </t>
-  </si>
-  <si>
     <t>La Población Económicamente Activa (PEA) incluye a las personas que ofrecen su trabajo en el mercado, sea que lo consiguen (ocupadas/os) o no (desocupadas/os). Cabe destacar que esta definición de "Actividad Económica" no contempla actividades como cocinar, limpiar, cuidar, etc. que son realizadas principalmente por mujeres fuera del mercado. </t>
+  </si>
+  <si>
+    <t>La categoría de dirección refiere a ocupaciones que se encuentran en el punto más alto de la estructura de mandos, impartiendo las órdenes. Tienen a su cargo la toma de decisiones globales de orden político, económico y productivo acerca de la direccionalidad, contenido y metas de los procesos productores de bienes y servicios. Junto con Jefatura constituyen las categorías de jerarquía dentro de la estructura productiva y nos permite ver cómo las mujeres acceden a cargos jerárquicos en menor medida.</t>
+  </si>
+  <si>
+    <t>Los Trabajadores Asalariados No Registrados son quienes trabajan en relación de dependencia aportando su trabajo personal, ya que todos los insumos, herramientas y formas organizativas para realizarlo están dados. Entran en esta categoría las personas que trabajan para un patrón, empresa o institución, las trabajadoras de casas particulares y les cuentapropistas que tienen un único cliente. No está registrado/a cuando la relación no está inscripta en ANSES, por lo que la persona asalariada no percibe descuento jubilatorio, ni asignaciones familiares, ni vacaciones pagas, entre otros derechos laborales.</t>
+  </si>
+  <si>
+    <t>Los Trabajadores Asalariados Registrados son quienes trabajan en relación de dependencia aportando su trabajo personal, ya que todos los insumos, herramientas y formas organizativas para realizarlo están dados. Entran en esta categoría las personas que trabajan para un patrón, empresa o institución, las trabajadoras de casas particulares y les cuentapropistas que tienen un único cliente. Está registrado/a cuando la relación está inscrita en ANSES, por lo que tiene descuento jubilatorio, asignaciones familiares, vacaciones pagas, entre otros derechos laborales.</t>
+  </si>
+  <si>
+    <t>Se calcula como la proporción que representa la Población Económicamente Activa entre la población total (mayor de 14 años), ya sea de mujeres o de varones.</t>
+  </si>
+  <si>
+    <t>De la Población Económicamente Activa, se considera a las personas que ya tienen un empleo pero buscan activamente otro.</t>
+  </si>
+  <si>
+    <t>Proporción de personas de la Población Económicamente Activa que no tiene empleo pero busca uno activamente. Son personas que están disponibles para trabajar pero no consiguen empleo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De la Población Económicamente Activa se considera a las personas que trabajan menos de 35 horas semanales, no están buscando activamente otro trabajo aunque desearían trabajar más horas pero por causas involuntarias no lo hacen. </t>
+  </si>
+  <si>
+    <t>Proporción de personas de la Población Económicamente Activa que están ocupadas, es decir que tiene un empleo, ya sea de mujeres o de varones.</t>
+  </si>
+  <si>
+    <t>Proporción de personas de la Población Económicamente Activa que tienen un empleo de menos de 35 horas semanales, están disponibles para trabajar más horas y se encuentran buscando empleo.</t>
+  </si>
+  <si>
+    <t>Refiere a la proporción de personas asalariadas y  no registradas, en relación a la población total de personas asalariadas. Es una forma de medir la incidencia de la informalidad en el mercado de trabajo, y observar si existen diferencias entre varones y mujeres en la probabilidad de insertarse de manera precaria. </t>
+  </si>
+  <si>
+    <t>Los grupos de edad son divisiones que se hacen de la población para poder analizar si hay diferencias según la etapa de la vida en la que se encuentran. Se los separa en dos grupos de 14 a 29 años y de 30 a 64 años para poder ver las diferencias en participación debido a prejuicios relativos a la maternidad, carga de trabajo doméstico y de cuidados no remunerados, años de estudio, experiencia, etc.</t>
+  </si>
+  <si>
+    <t>Analizamos las diferencias por género de acuerdo al sector de la economía donde la persona ejerce su empleo, debido a la existencia de segregación horizontal del mercado de trabajo. Este término hace referencia al predominio de mujeres en sectores o actividades asociadas a tareas estereotípicamente femeninas, tales como el cuidado, la limpieza, la crianza y enseñanza. Decimos que estas ramas están “feminizadas” y suelen ser, además, las que tienen las peores condiciones de trabajo y empleo.</t>
+  </si>
+  <si>
+    <t>El ingreso total contempla tanto ingresos laborales como no laborales de una persona, como rentas o subsidios. La "brecha de ingreso total individual" calcula la diferencia entre los ingresos individuales promedios de los varones y las mujeres, expresada en términos del ingreso de los varones (generalmente el más alto). Es decir, que puede leerse como “las mujeres perciben ingresos que, en promedio, son un …% menores que los de los varones”. En Argentina esta brecha es estructural, aunque sensible a los ciclos económicos.</t>
+  </si>
+  <si>
+    <t>Esta brecha calcula la diferencia entre los ingresos promedios percibidos por el empleo principal de los varones y las mujeres, expresándola en términos del promedio percibido por los varones (generalmente el más alto). Es decir, que puede leerse como “las mujeres perciben ingresos derivados de su ocupación principal que, en promedio, son un …% menores que los de los varones”. La existencia de la brecha en detrimento de las mujeres es algo que se repite en todo el mundo y se debe al tipo de inserción laboral que tienen las personas, dado que el género condiciona la jerarquía del puesto donde trabajan, la rama de la ocupación, la cantidad de tiempo que destinan al mercado remunerado, cuánta responsabilidad tienen sobre las tareas domésticas, entre otras. Si bien existe la discriminación explícita, la existencia de una brecha salarial no necesariamente  implica que se esté remunerando peor a las mujeres por igual tarea y tiempo de trabajo que los varones.</t>
+  </si>
+  <si>
+    <t>La "brecha de ingreso horario de la ocupación principal" calcula la diferencia entre los ingresos por hora promedio percibidos por el empleo principal de los varones y las mujeres, expresada en términos del promedio percibido por los varones (generalmente el más alto). Es decir, que puede leerse como “por cada hora que trabajan en su ocupación principal, las mujeres perciben un ingreso, en promedio, …% menos que los de los varones”. Nos interesa estudiar la desigualdad en los ingresos en el pago por hora, teniendo en cuenta que la cantidad de tiempo destinado al mercado productivo no es igual entre varones y mujeres, porque son ellas quienes trabajan menos horas remuneradas para destinar tiempo al trabajo no pago del hogar y cuidados.</t>
+  </si>
+  <si>
+    <t>Lo que se conoce como "brecha salarial" calcula la diferencia entre los salarios promedios percibidos por el empleo principal de los varones y las mujeres y la expresa en términos del promedio percibido por los varones (generalmente el más alto). Es decir, que puede leerse como “las mujeres perciben ingresos derivados de su ocupación principal que, en promedio, son un …% menores que los de los varones”. Nos interesa ver cómo se amplía esta diferencia para el caso de las personas que trabajan en el mercado informal porque las mujeres tienden a insertarse en mayor medida bajo esa condición, como el caso de la rama del servicio doméstico.</t>
+  </si>
+  <si>
+    <t>Las responsabilidades de limpieza, cocina y gestión del hogar toman tiempo y son un trabajo invisibilizado. Este indicador busca visibilizar el género de la principal persona encargada de resolverlas en cada hogar. Los hogares de un único miembro se incluyen en el cómputo, y se excluyen los casos en que estas tareas son realizadas por una trabajadora de casas particulares. </t>
   </si>
 </sst>
 </file>
@@ -353,19 +353,10 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -377,34 +368,30 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -695,367 +682,367 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="53.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="72.77734375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="110.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72.77734375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="110.5546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="18" t="s">
+    <row r="5" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="18" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="18" t="s">
+      <c r="C17" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="18" t="s">
+      <c r="C18" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="18" t="s">
+      <c r="C23" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="18" t="s">
+      <c r="C24" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="18" t="s">
+      <c r="C25" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="18" t="s">
+      <c r="C27" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="18" t="s">
+      <c r="C28" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="18" t="s">
+      <c r="C29" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="18" t="s">
+      <c r="C30" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="18" t="s">
+      <c r="C31" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="18" t="s">
+      <c r="C32" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" t="s">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/www/metadata.xlsx
+++ b/www/metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\carol\Documents\Ecofeminita-general\shinyapp\www\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\ECOFEMINITA\shinyapp\www\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02EE1604-2868-4D64-9851-C1A27B326957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDF54B6-819C-49B3-A071-B0BF19D35913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -123,9 +123,6 @@
     <t>B-Ingreso horario de la Ocupación Principal</t>
   </si>
   <si>
-    <t>B-Ingreso de la Ocupación Principal - Asalariadas/os sin desc. Jubil</t>
-  </si>
-  <si>
     <t>Desagregación edad</t>
   </si>
   <si>
@@ -264,10 +261,13 @@
     <t>La "brecha de ingreso horario de la ocupación principal" calcula la diferencia entre los ingresos por hora promedio percibidos por el empleo principal de los varones y las mujeres, expresada en términos del promedio percibido por los varones (generalmente el más alto). Es decir, que puede leerse como “por cada hora que trabajan en su ocupación principal, las mujeres perciben un ingreso, en promedio, …% menos que los de los varones”. Nos interesa estudiar la desigualdad en los ingresos en el pago por hora, teniendo en cuenta que la cantidad de tiempo destinado al mercado productivo no es igual entre varones y mujeres, porque son ellas quienes trabajan menos horas remuneradas para destinar tiempo al trabajo no pago del hogar y cuidados.</t>
   </si>
   <si>
-    <t>Lo que se conoce como "brecha salarial" calcula la diferencia entre los salarios promedios percibidos por el empleo principal de los varones y las mujeres y la expresa en términos del promedio percibido por los varones (generalmente el más alto). Es decir, que puede leerse como “las mujeres perciben ingresos derivados de su ocupación principal que, en promedio, son un …% menores que los de los varones”. Nos interesa ver cómo se amplía esta diferencia para el caso de las personas que trabajan en el mercado informal porque las mujeres tienden a insertarse en mayor medida bajo esa condición, como el caso de la rama del servicio doméstico.</t>
-  </si>
-  <si>
     <t>Las responsabilidades de limpieza, cocina y gestión del hogar toman tiempo y son un trabajo invisibilizado. Este indicador busca visibilizar el género de la principal persona encargada de resolverlas en cada hogar. Los hogares de un único miembro se incluyen en el cómputo, y se excluyen los casos en que estas tareas son realizadas por una trabajadora de casas particulares. </t>
+  </si>
+  <si>
+    <t>B-Ingreso de la Ocupación Principal - Asalariadas/os sin desc. jubil</t>
+  </si>
+  <si>
+    <t>Identificar a quienes no cuentan con descuento jubilatorio es una forma de estimar la informalidad. La "brecha de ingreso de la ocupación principal para asalariadas/os sin descuento jubilatorio" calcula la diferencia entre los ingresos percibidos por el empleo principal de varones y mujeres "informales". La brecha se expresa en términos del promedio percibido por los varones (generalmente el más alto). Es decir, que puede leerse como “por cada hora que trabajan en su ocupación principal, las mujeres sin descuento jubilatorio perciben un ingreso, en promedio, …% menos que los varones sin descuento jubilatorio”.</t>
   </si>
 </sst>
 </file>
@@ -682,18 +682,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="53.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="72.77734375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="110.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72.81640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="110.54296875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -704,345 +704,345 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="87" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="116" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="174" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="145" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="116" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="10" t="s">
+    </row>
+    <row r="28" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
+      <c r="C28" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B29" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C29" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A31" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="10" t="s">
+      <c r="B33" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+      <c r="B34" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
